--- a/옵션표.xlsx
+++ b/옵션표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t>최대 생명력 +#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,7 +518,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,7 +896,9 @@
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
         <v>32</v>
@@ -936,7 +938,9 @@
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>32</v>
       </c>

--- a/옵션표.xlsx
+++ b/옵션표.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/옵션표.xlsx
+++ b/옵션표.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>최대 생명력 +#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,7 +518,7 @@
   <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,9 @@
         <v>0</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
@@ -619,7 +621,9 @@
         <v>2</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
